--- a/covid_impfquote_plz/ssz_plz4_impffaehiges_alter/wbev_plz_impffaehiges-alter_aktJahresbest.xlsx
+++ b/covid_impfquote_plz/ssz_plz4_impffaehiges_alter/wbev_plz_impffaehiges-alter_aktJahresbest.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_SAS_empty_">'_SAS_empty_'!$A$1</definedName>
-    <definedName name="Alle_Locations">'Alle_Locations'!$A$1:$E$57</definedName>
+    <definedName name="Alle_Locations">'Alle_Locations'!$A$1:$F$57</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -367,7 +367,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -398,6 +398,11 @@
       </c>
       <c r="E1" s="0" t="inlineStr">
         <is>
+          <t>AnzBestZiv</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
           <t>AnzBest</t>
         </is>
       </c>
@@ -420,6 +425,9 @@
         <v>5453</v>
       </c>
       <c r="E2" s="0">
+        <v>5673</v>
+      </c>
+      <c r="F2" s="0">
         <v>6206</v>
       </c>
     </row>
@@ -441,6 +449,9 @@
         <v>391</v>
       </c>
       <c r="E3" s="0">
+        <v>392</v>
+      </c>
+      <c r="F3" s="0">
         <v>399</v>
       </c>
     </row>
@@ -462,6 +473,9 @@
         <v>8437</v>
       </c>
       <c r="E4" s="0">
+        <v>8104</v>
+      </c>
+      <c r="F4" s="0">
         <v>8514</v>
       </c>
     </row>
@@ -483,6 +497,9 @@
         <v>1383</v>
       </c>
       <c r="E5" s="0">
+        <v>1375</v>
+      </c>
+      <c r="F5" s="0">
         <v>1383</v>
       </c>
     </row>
@@ -504,6 +521,9 @@
         <v>18736</v>
       </c>
       <c r="E6" s="0">
+        <v>17817</v>
+      </c>
+      <c r="F6" s="0">
         <v>18831</v>
       </c>
     </row>
@@ -525,6 +545,9 @@
         <v>2414</v>
       </c>
       <c r="E7" s="0">
+        <v>2369</v>
+      </c>
+      <c r="F7" s="0">
         <v>2420</v>
       </c>
     </row>
@@ -546,6 +569,9 @@
         <v>25881</v>
       </c>
       <c r="E8" s="0">
+        <v>24482</v>
+      </c>
+      <c r="F8" s="0">
         <v>26265</v>
       </c>
     </row>
@@ -567,6 +593,9 @@
         <v>2232</v>
       </c>
       <c r="E9" s="0">
+        <v>2242</v>
+      </c>
+      <c r="F9" s="0">
         <v>2268</v>
       </c>
     </row>
@@ -588,6 +617,9 @@
         <v>14326</v>
       </c>
       <c r="E10" s="0">
+        <v>13715</v>
+      </c>
+      <c r="F10" s="0">
         <v>14404</v>
       </c>
     </row>
@@ -609,6 +641,9 @@
         <v>1525</v>
       </c>
       <c r="E11" s="0">
+        <v>1509</v>
+      </c>
+      <c r="F11" s="0">
         <v>1528</v>
       </c>
     </row>
@@ -630,6 +665,9 @@
         <v>17108</v>
       </c>
       <c r="E12" s="0">
+        <v>15903</v>
+      </c>
+      <c r="F12" s="0">
         <v>17203</v>
       </c>
     </row>
@@ -651,6 +689,9 @@
         <v>2271</v>
       </c>
       <c r="E13" s="0">
+        <v>2258</v>
+      </c>
+      <c r="F13" s="0">
         <v>2274</v>
       </c>
     </row>
@@ -672,6 +713,9 @@
         <v>15720</v>
       </c>
       <c r="E14" s="0">
+        <v>15014</v>
+      </c>
+      <c r="F14" s="0">
         <v>15824</v>
       </c>
     </row>
@@ -693,6 +737,9 @@
         <v>1825</v>
       </c>
       <c r="E15" s="0">
+        <v>1817</v>
+      </c>
+      <c r="F15" s="0">
         <v>1830</v>
       </c>
     </row>
@@ -716,6 +763,9 @@
       <c r="E16" s="0">
         <v>1</v>
       </c>
+      <c r="F16" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="0">
@@ -735,6 +785,9 @@
         <v>16410</v>
       </c>
       <c r="E17" s="0">
+        <v>15569</v>
+      </c>
+      <c r="F17" s="0">
         <v>16545</v>
       </c>
     </row>
@@ -756,6 +809,9 @@
         <v>2271</v>
       </c>
       <c r="E18" s="0">
+        <v>2252</v>
+      </c>
+      <c r="F18" s="0">
         <v>2276</v>
       </c>
     </row>
@@ -777,6 +833,9 @@
         <v>14705</v>
       </c>
       <c r="E19" s="0">
+        <v>14057</v>
+      </c>
+      <c r="F19" s="0">
         <v>14863</v>
       </c>
     </row>
@@ -798,6 +857,9 @@
         <v>1929</v>
       </c>
       <c r="E20" s="0">
+        <v>1911</v>
+      </c>
+      <c r="F20" s="0">
         <v>1938</v>
       </c>
     </row>
@@ -819,6 +881,9 @@
         <v>15191</v>
       </c>
       <c r="E21" s="0">
+        <v>14782</v>
+      </c>
+      <c r="F21" s="0">
         <v>15273</v>
       </c>
     </row>
@@ -840,6 +905,9 @@
         <v>2546</v>
       </c>
       <c r="E22" s="0">
+        <v>2515</v>
+      </c>
+      <c r="F22" s="0">
         <v>2550</v>
       </c>
     </row>
@@ -861,6 +929,9 @@
         <v>6472</v>
       </c>
       <c r="E23" s="0">
+        <v>6272</v>
+      </c>
+      <c r="F23" s="0">
         <v>6499</v>
       </c>
     </row>
@@ -882,6 +953,9 @@
         <v>1525</v>
       </c>
       <c r="E24" s="0">
+        <v>1474</v>
+      </c>
+      <c r="F24" s="0">
         <v>1525</v>
       </c>
     </row>
@@ -903,6 +977,9 @@
         <v>7685</v>
       </c>
       <c r="E25" s="0">
+        <v>7429</v>
+      </c>
+      <c r="F25" s="0">
         <v>7758</v>
       </c>
     </row>
@@ -924,6 +1001,9 @@
         <v>1387</v>
       </c>
       <c r="E26" s="0">
+        <v>1388</v>
+      </c>
+      <c r="F26" s="0">
         <v>1389</v>
       </c>
     </row>
@@ -945,6 +1025,9 @@
         <v>9862</v>
       </c>
       <c r="E27" s="0">
+        <v>9535</v>
+      </c>
+      <c r="F27" s="0">
         <v>9913</v>
       </c>
     </row>
@@ -966,6 +1049,9 @@
         <v>1620</v>
       </c>
       <c r="E28" s="0">
+        <v>1613</v>
+      </c>
+      <c r="F28" s="0">
         <v>1621</v>
       </c>
     </row>
@@ -987,6 +1073,9 @@
         <v>22285</v>
       </c>
       <c r="E29" s="0">
+        <v>21133</v>
+      </c>
+      <c r="F29" s="0">
         <v>22369</v>
       </c>
     </row>
@@ -1008,6 +1097,9 @@
         <v>4135</v>
       </c>
       <c r="E30" s="0">
+        <v>4083</v>
+      </c>
+      <c r="F30" s="0">
         <v>4142</v>
       </c>
     </row>
@@ -1029,6 +1121,9 @@
         <v>17942</v>
       </c>
       <c r="E31" s="0">
+        <v>17530</v>
+      </c>
+      <c r="F31" s="0">
         <v>18106</v>
       </c>
     </row>
@@ -1050,6 +1145,9 @@
         <v>3169</v>
       </c>
       <c r="E32" s="0">
+        <v>3165</v>
+      </c>
+      <c r="F32" s="0">
         <v>3178</v>
       </c>
     </row>
@@ -1071,6 +1169,9 @@
         <v>26524</v>
       </c>
       <c r="E33" s="0">
+        <v>25435</v>
+      </c>
+      <c r="F33" s="0">
         <v>26632</v>
       </c>
     </row>
@@ -1092,6 +1193,9 @@
         <v>3602</v>
       </c>
       <c r="E34" s="0">
+        <v>3547</v>
+      </c>
+      <c r="F34" s="0">
         <v>3608</v>
       </c>
     </row>
@@ -1113,6 +1217,9 @@
         <v>21023</v>
       </c>
       <c r="E35" s="0">
+        <v>20109</v>
+      </c>
+      <c r="F35" s="0">
         <v>21119</v>
       </c>
     </row>
@@ -1134,6 +1241,9 @@
         <v>3382</v>
       </c>
       <c r="E36" s="0">
+        <v>3371</v>
+      </c>
+      <c r="F36" s="0">
         <v>3384</v>
       </c>
     </row>
@@ -1155,6 +1265,9 @@
         <v>26390</v>
       </c>
       <c r="E37" s="0">
+        <v>24756</v>
+      </c>
+      <c r="F37" s="0">
         <v>26711</v>
       </c>
     </row>
@@ -1176,6 +1289,9 @@
         <v>4166</v>
       </c>
       <c r="E38" s="0">
+        <v>4088</v>
+      </c>
+      <c r="F38" s="0">
         <v>4194</v>
       </c>
     </row>
@@ -1197,6 +1313,9 @@
         <v>20380</v>
       </c>
       <c r="E39" s="0">
+        <v>19061</v>
+      </c>
+      <c r="F39" s="0">
         <v>20454</v>
       </c>
     </row>
@@ -1218,6 +1337,9 @@
         <v>3170</v>
       </c>
       <c r="E40" s="0">
+        <v>3086</v>
+      </c>
+      <c r="F40" s="0">
         <v>3183</v>
       </c>
     </row>
@@ -1239,6 +1361,9 @@
         <v>17838</v>
       </c>
       <c r="E41" s="0">
+        <v>16732</v>
+      </c>
+      <c r="F41" s="0">
         <v>17903</v>
       </c>
     </row>
@@ -1260,6 +1385,9 @@
         <v>3025</v>
       </c>
       <c r="E42" s="0">
+        <v>2932</v>
+      </c>
+      <c r="F42" s="0">
         <v>3027</v>
       </c>
     </row>
@@ -1281,6 +1409,9 @@
         <v>9705</v>
       </c>
       <c r="E43" s="0">
+        <v>9521</v>
+      </c>
+      <c r="F43" s="0">
         <v>9761</v>
       </c>
     </row>
@@ -1302,6 +1433,9 @@
         <v>1594</v>
       </c>
       <c r="E44" s="0">
+        <v>1585</v>
+      </c>
+      <c r="F44" s="0">
         <v>1595</v>
       </c>
     </row>
@@ -1323,6 +1457,9 @@
         <v>16863</v>
       </c>
       <c r="E45" s="0">
+        <v>16503</v>
+      </c>
+      <c r="F45" s="0">
         <v>16941</v>
       </c>
     </row>
@@ -1344,6 +1481,9 @@
         <v>3336</v>
       </c>
       <c r="E46" s="0">
+        <v>3298</v>
+      </c>
+      <c r="F46" s="0">
         <v>3338</v>
       </c>
     </row>
@@ -1365,6 +1505,9 @@
         <v>19925</v>
       </c>
       <c r="E47" s="0">
+        <v>18357</v>
+      </c>
+      <c r="F47" s="0">
         <v>20043</v>
       </c>
     </row>
@@ -1386,6 +1529,9 @@
         <v>3120</v>
       </c>
       <c r="E48" s="0">
+        <v>3072</v>
+      </c>
+      <c r="F48" s="0">
         <v>3122</v>
       </c>
     </row>
@@ -1409,6 +1555,9 @@
       <c r="E49" s="0">
         <v>1</v>
       </c>
+      <c r="F49" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="50">
       <c r="A50" s="0">
@@ -1428,6 +1577,9 @@
         <v>3309</v>
       </c>
       <c r="E50" s="0">
+        <v>3157</v>
+      </c>
+      <c r="F50" s="0">
         <v>3320</v>
       </c>
     </row>
@@ -1449,6 +1601,9 @@
         <v>519</v>
       </c>
       <c r="E51" s="0">
+        <v>508</v>
+      </c>
+      <c r="F51" s="0">
         <v>521</v>
       </c>
     </row>
@@ -1472,6 +1627,9 @@
       <c r="E52" s="0">
         <v>4</v>
       </c>
+      <c r="F52" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="53">
       <c r="A53" s="0">
@@ -1493,6 +1651,9 @@
       <c r="E53" s="0">
         <v>2</v>
       </c>
+      <c r="F53" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row outlineLevel="0" r="54">
       <c r="A54" s="0">
@@ -1514,6 +1675,9 @@
       <c r="E54" s="0">
         <v>1</v>
       </c>
+      <c r="F54" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row outlineLevel="0" r="55">
       <c r="A55" s="0">
@@ -1535,6 +1699,9 @@
       <c r="E55" s="0">
         <v>4</v>
       </c>
+      <c r="F55" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row outlineLevel="0" r="56">
       <c r="A56" s="0">
@@ -1556,6 +1723,9 @@
       <c r="E56" s="0">
         <v>7</v>
       </c>
+      <c r="F56" s="0">
+        <v>7</v>
+      </c>
     </row>
     <row outlineLevel="0" r="57">
       <c r="A57" s="0">
@@ -1575,6 +1745,9 @@
         <v>9</v>
       </c>
       <c r="E57" s="0">
+        <v>5</v>
+      </c>
+      <c r="F57" s="0">
         <v>9</v>
       </c>
     </row>
